--- a/xlsx/柔似蜜_intext.xlsx
+++ b/xlsx/柔似蜜_intext.xlsx
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E6%B3%95%E5%9C%98</t>
   </si>
   <si>
-    <t>市法團</t>
+    <t>市法团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>市議會</t>
+    <t>市议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mayor</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
+    <t>2010年美国人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%B3%87%E6%96%99%E8%99%95%E7%90%86%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>聯邦資料處理標準</t>
+    <t>联邦资料处理标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%90%8D%E4%BF%A1%E6%81%AF%E7%B3%BB%E7%BB%9F</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%94%E7%B5%B2%E8%9C%9C%E5%AD%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>柔絲蜜學區</t>
+    <t>柔丝蜜学区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E8%92%99%E5%9C%B0%E9%AB%98%E4%B8%AD%E5%AD%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>艾爾蒙地高中學區</t>
+    <t>艾尔蒙地高中学区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E5%81%89%E5%AD%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>嘉偉學區</t>
+    <t>嘉伟学区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BD%95%E5%B8%83%E6%8B%89%E8%81%AF%E5%90%88%E5%AD%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>阿罕布拉聯合學區</t>
+    <t>阿罕布拉联合学区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%9A%86%E5%B8%82</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%B3%A2%E6%BD%98</t>
   </si>
   <si>
-    <t>薩波潘</t>
+    <t>萨波潘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
